--- a/biology/Botanique/Induvie/Induvie.xlsx
+++ b/biology/Botanique/Induvie/Induvie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En botanique, on appelle induvie (emprunté au latin induviae « vêtement », dérivé de induere « mettre sur ») un ou plusieurs organes de la fleur ou de l'inflorescence qui se développent après la fécondation et recouvrent le fruit ou le supportent au lieu de disparaître comme dans le cas général. Ces organes peuvent être selon le cas le réceptacle floral, le calice, le pédoncule, le style, les étamines, etc.[1] Dans certains cas, les induvies deviennent charnues et comestibles et constituent des fruits du commerce, en fait des faux-fruits. Elles peuvent aussi constituer des organes de dissémination du fruit, comme les ailes des samares ou les aigrettes de certaines akènes de composées[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En botanique, on appelle induvie (emprunté au latin induviae « vêtement », dérivé de induere « mettre sur ») un ou plusieurs organes de la fleur ou de l'inflorescence qui se développent après la fécondation et recouvrent le fruit ou le supportent au lieu de disparaître comme dans le cas général. Ces organes peuvent être selon le cas le réceptacle floral, le calice, le pédoncule, le style, les étamines, etc. Dans certains cas, les induvies deviennent charnues et comestibles et constituent des fruits du commerce, en fait des faux-fruits. Elles peuvent aussi constituer des organes de dissémination du fruit, comme les ailes des samares ou les aigrettes de certaines akènes de composées.
 </t>
         </is>
       </c>
